--- a/results/test_results_regularized.xlsx
+++ b/results/test_results_regularized.xlsx
@@ -647,40 +647,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9975457638099386</v>
+        <v>0.9682612609218907</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7078989344674188</v>
+        <v>0.7084336570791296</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9064832145347921</v>
+        <v>0.8958477337786327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6102929711341858</v>
+        <v>6.108453273773193</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7010136306709076</v>
+        <v>6.585326235144985</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6102929711341858</v>
+        <v>6.108453273773193</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09106254927514656</v>
+        <v>0.07241352714325799</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3872527926757529</v>
+        <v>-5.140192012851303</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2961902434006063</v>
+        <v>5.212605539994561</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6102929711341858</v>
+        <v>6.080389022827148</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>0.4</v>
@@ -692,85 +692,85 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7148463129997253</v>
+        <v>0.7139046192169189</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.959788978099823</v>
+        <v>0.9527676701545715</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1433748602867126</v>
+        <v>0.1558623313903809</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6664550304412842</v>
+        <v>0.6651427149772644</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9886137843132019</v>
+        <v>0.962626039981842</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07074719667434692</v>
+        <v>0.1189597845077515</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7357283234596252</v>
+        <v>0.7326511740684509</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9878584742546082</v>
+        <v>0.9792417287826538</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09269881248474121</v>
+        <v>0.1084580421447754</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6802305579185486</v>
+        <v>0.6869608163833618</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.010264754295349</v>
+        <v>0.9856841564178467</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02984797954559326</v>
+        <v>0.07648283243179321</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7680719494819641</v>
+        <v>0.7651740312576294</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.025493383407593</v>
+        <v>1.020087122917175</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.02249741554260254</v>
+        <v>0.03277677297592163</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6910519599914551</v>
+        <v>0.6988017559051514</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.031437873840332</v>
+        <v>1.008159995079041</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.01100385189056396</v>
+        <v>0.03411459922790527</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.737602174282074</v>
+        <v>0.7353547811508179</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.9889302849769592</v>
+        <v>0.9822011590003967</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.09071558713912964</v>
+        <v>0.1030478477478027</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6779401302337646</v>
+        <v>0.6812342405319214</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.008164048194885</v>
+        <v>0.9854488372802734</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.03382927179336548</v>
+        <v>0.0768769383430481</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7077710628509521</v>
+        <v>0.7082946300506592</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.9985935688018799</v>
+        <v>0.9838261604309082</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.06302309036254883</v>
+        <v>0.09053057432174683</v>
       </c>
     </row>
   </sheetData>
